--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H2">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I2">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J2">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.3780092756336</v>
+        <v>53.93158966666667</v>
       </c>
       <c r="N2">
-        <v>35.3780092756336</v>
+        <v>161.794769</v>
       </c>
       <c r="O2">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="P2">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="Q2">
-        <v>3755.715465747806</v>
+        <v>7350.209993955411</v>
       </c>
       <c r="R2">
-        <v>3755.715465747806</v>
+        <v>66151.8899455987</v>
       </c>
       <c r="S2">
-        <v>0.1484256971364364</v>
+        <v>0.1951410117872804</v>
       </c>
       <c r="T2">
-        <v>0.1484256971364364</v>
+        <v>0.1951410117872804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H3">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I3">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J3">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.528768351767241</v>
+        <v>8.600708333333333</v>
       </c>
       <c r="N3">
-        <v>8.528768351767241</v>
+        <v>25.802125</v>
       </c>
       <c r="O3">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="P3">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="Q3">
-        <v>905.4106734200629</v>
+        <v>1172.170387290375</v>
       </c>
       <c r="R3">
-        <v>905.4106734200629</v>
+        <v>10549.53348561338</v>
       </c>
       <c r="S3">
-        <v>0.03578178688528135</v>
+        <v>0.03111999732674844</v>
       </c>
       <c r="T3">
-        <v>0.03578178688528135</v>
+        <v>0.03111999732674844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H4">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I4">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J4">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.60395680963388</v>
+        <v>10.11960666666667</v>
       </c>
       <c r="N4">
-        <v>9.60395680963388</v>
+        <v>30.35882</v>
       </c>
       <c r="O4">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="P4">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="Q4">
-        <v>1019.552254658906</v>
+        <v>1379.17748236158</v>
       </c>
       <c r="R4">
-        <v>1019.552254658906</v>
+        <v>12412.59734125422</v>
       </c>
       <c r="S4">
-        <v>0.04029265676404018</v>
+        <v>0.03661583676705841</v>
       </c>
       <c r="T4">
-        <v>0.04029265676404018</v>
+        <v>0.03661583676705841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H5">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J5">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.3780092756336</v>
+        <v>53.93158966666667</v>
       </c>
       <c r="N5">
-        <v>35.3780092756336</v>
+        <v>161.794769</v>
       </c>
       <c r="O5">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="P5">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="Q5">
-        <v>5051.109203596352</v>
+        <v>7741.295833260269</v>
       </c>
       <c r="R5">
-        <v>5051.109203596352</v>
+        <v>69671.66249934242</v>
       </c>
       <c r="S5">
-        <v>0.1996195962376457</v>
+        <v>0.2055239649873098</v>
       </c>
       <c r="T5">
-        <v>0.1996195962376457</v>
+        <v>0.2055239649873098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H6">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I6">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J6">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.528768351767241</v>
+        <v>8.600708333333333</v>
       </c>
       <c r="N6">
-        <v>8.528768351767241</v>
+        <v>25.802125</v>
       </c>
       <c r="O6">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="P6">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="Q6">
-        <v>1217.698259427608</v>
+        <v>1234.538569981583</v>
       </c>
       <c r="R6">
-        <v>1217.698259427608</v>
+        <v>11110.84712983425</v>
       </c>
       <c r="S6">
-        <v>0.04812337747779329</v>
+        <v>0.0327758126413728</v>
       </c>
       <c r="T6">
-        <v>0.04812337747779329</v>
+        <v>0.03277581264137279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H7">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I7">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J7">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.60395680963388</v>
+        <v>10.11960666666667</v>
       </c>
       <c r="N7">
-        <v>9.60395680963388</v>
+        <v>30.35882</v>
       </c>
       <c r="O7">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="P7">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="Q7">
-        <v>1371.208714829949</v>
+        <v>1452.559982138227</v>
       </c>
       <c r="R7">
-        <v>1371.208714829949</v>
+        <v>13073.03983924404</v>
       </c>
       <c r="S7">
-        <v>0.05419010339689524</v>
+        <v>0.03856407161554179</v>
       </c>
       <c r="T7">
-        <v>0.05419010339689524</v>
+        <v>0.03856407161554178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H8">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I8">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J8">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.3780092756336</v>
+        <v>53.93158966666667</v>
       </c>
       <c r="N8">
-        <v>35.3780092756336</v>
+        <v>161.794769</v>
       </c>
       <c r="O8">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="P8">
-        <v>0.6611385481405114</v>
+        <v>0.7423286411293627</v>
       </c>
       <c r="Q8">
-        <v>7922.409675911383</v>
+        <v>12869.15373304202</v>
       </c>
       <c r="R8">
-        <v>7922.409675911383</v>
+        <v>115822.3835973782</v>
       </c>
       <c r="S8">
-        <v>0.3130932547664292</v>
+        <v>0.3416636643547726</v>
       </c>
       <c r="T8">
-        <v>0.3130932547664292</v>
+        <v>0.3416636643547725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H9">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I9">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J9">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.528768351767241</v>
+        <v>8.600708333333333</v>
       </c>
       <c r="N9">
-        <v>8.528768351767241</v>
+        <v>25.802125</v>
       </c>
       <c r="O9">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="P9">
-        <v>0.1593842514309519</v>
+        <v>0.1183824205682444</v>
       </c>
       <c r="Q9">
-        <v>1909.898219179475</v>
+        <v>2052.300672737861</v>
       </c>
       <c r="R9">
-        <v>1909.898219179475</v>
+        <v>18470.70605464075</v>
       </c>
       <c r="S9">
-        <v>0.0754790870678773</v>
+        <v>0.0544866106001232</v>
       </c>
       <c r="T9">
-        <v>0.0754790870678773</v>
+        <v>0.0544866106001232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H10">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I10">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J10">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.60395680963388</v>
+        <v>10.11960666666667</v>
       </c>
       <c r="N10">
-        <v>9.60395680963388</v>
+        <v>30.35882</v>
       </c>
       <c r="O10">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="P10">
-        <v>0.1794772004285367</v>
+        <v>0.1392889383023929</v>
       </c>
       <c r="Q10">
-        <v>2150.671615321289</v>
+        <v>2414.740131269329</v>
       </c>
       <c r="R10">
-        <v>2150.671615321289</v>
+        <v>21732.66118142396</v>
       </c>
       <c r="S10">
-        <v>0.08499444026760127</v>
+        <v>0.06410902991979274</v>
       </c>
       <c r="T10">
-        <v>0.08499444026760127</v>
+        <v>0.06410902991979273</v>
       </c>
     </row>
   </sheetData>
